--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3785640.308821701</v>
+        <v>3783752.727305299</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7934495.5534405</v>
+        <v>7934495.553440501</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270.6226856612333</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.8663669730196</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599754</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.66886596659365</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132221</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>97.58716462297957</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.5701849660524</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.87916681139872</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500651</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>235.5975646709558</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.0041688483414</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965541</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801223</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943743</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>6.749002612114402</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.599126004630718</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.624369323446</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995.9506728057374</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C8" t="n">
-        <v>626.9881558653258</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>626.9881558653258</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>241.1999032670815</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.538454714624</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.063975947119</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5267,10 +5267,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,16 +5279,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5467,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188989</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188989</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>481.4617027208816</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
     </row>
     <row r="20">
@@ -5729,52 +5729,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.2170914602857</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="C22" t="n">
-        <v>97.2170914602857</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>265.7133084820795</v>
       </c>
       <c r="E22" t="n">
+        <v>117.8002148996864</v>
+      </c>
+      <c r="F22" t="n">
         <v>97.21709146028584</v>
       </c>
-      <c r="F22" t="n">
-        <v>97.21709146028587</v>
-      </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011504</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952636</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W22" t="n">
-        <v>325.206642358303</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X22" t="n">
-        <v>97.2170914602857</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.2170914602857</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636254</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028576</v>
+        <v>208.7516828383378</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028579</v>
+        <v>208.7516828383378</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383378</v>
       </c>
       <c r="E25" t="n">
+        <v>208.7516828383378</v>
+      </c>
+      <c r="F25" t="n">
+        <v>208.7516828383378</v>
+      </c>
+      <c r="G25" t="n">
+        <v>208.7516828383378</v>
+      </c>
+      <c r="H25" t="n">
+        <v>208.7516828383378</v>
+      </c>
+      <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
-      <c r="F25" t="n">
-        <v>97.21709146028587</v>
-      </c>
-      <c r="G25" t="n">
-        <v>97.21709146028587</v>
-      </c>
-      <c r="H25" t="n">
-        <v>97.21709146028587</v>
-      </c>
-      <c r="I25" t="n">
-        <v>97.21709146028587</v>
-      </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765193</v>
+        <v>726.1584037733157</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706325</v>
+        <v>726.1584037733157</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336719</v>
+        <v>436.7412337363551</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028576</v>
+        <v>208.7516828383378</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028576</v>
+        <v>208.7516828383378</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,28 +6224,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384084</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384085</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028586</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384084</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
@@ -6531,31 +6531,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298184</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962217</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110203</v>
+        <v>604.5641438163774</v>
       </c>
       <c r="C31" t="n">
-        <v>381.671350464484</v>
+        <v>491.3888261698413</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335189</v>
+        <v>397.0330520388763</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480324963</v>
+        <v>397.0330520388763</v>
       </c>
       <c r="F31" t="n">
-        <v>104.034265815957</v>
+        <v>305.9039698223367</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>193.4895134235281</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>98.83237025284214</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
@@ -6622,13 +6622,13 @@
         <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252996</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386955</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220488</v>
+        <v>730.4517433652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598894</v>
+        <v>730.4517433652463</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7157,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7196,10 +7196,10 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7309,34 +7309,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,19 +7345,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582214</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646855</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,7 +7819,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,19 +9012,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.6266194094365</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208055</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775656</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684486102</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>85.30006332127807</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.674264993448</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>188.9358337136114</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.01446838604235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583517045</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179247</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338564</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50.63978772762152</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338469</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987091</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.5413092227063</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897918</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571503</v>
+        <v>53.61686283108422</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523584</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692643.3405159905</v>
+        <v>692643.3405159907</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="G2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.954088749</v>
+        <v>752620.9540887491</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.637124461</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244615</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284555</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687073</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="K4" t="n">
-        <v>40339.23010106719</v>
+        <v>40339.2301010673</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26482,28 +26482,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001595</v>
+        <v>-78996.18794001601</v>
       </c>
       <c r="C6" t="n">
         <v>510971.6912745285</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745287</v>
+        <v>510971.6912745284</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.7905022776</v>
+        <v>83984.33137630566</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.8269791745</v>
+        <v>609144.3678532022</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.8269791738</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="H6" t="n">
-        <v>609241.8269791739</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.8269791736</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.6077865812</v>
+        <v>432721.1486606091</v>
       </c>
       <c r="K6" t="n">
-        <v>571490.9101546134</v>
+        <v>571472.416416679</v>
       </c>
       <c r="L6" t="n">
         <v>606812.2296753778</v>
       </c>
       <c r="M6" t="n">
-        <v>482354.1212424077</v>
+        <v>482354.1212424071</v>
       </c>
       <c r="N6" t="n">
-        <v>617155.1364762448</v>
+        <v>617155.1364762447</v>
       </c>
       <c r="O6" t="n">
-        <v>617155.1364762447</v>
+        <v>617155.1364762449</v>
       </c>
       <c r="P6" t="n">
-        <v>572992.5311733988</v>
+        <v>572992.5311733993</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.684341886080801e-14</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,22 +26923,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>94.65020610977422</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.8647337054495</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110322</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.2071797751178</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106059</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>138.6396521945106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734238</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768299</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>618.2977090519464</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>366.1170600557694</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>259.1582176405104</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>506.0379672345562</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520626</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
